--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H2">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I2">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J2">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="N2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="O2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="P2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="Q2">
-        <v>9.043493017507586</v>
+        <v>9.672247325935999</v>
       </c>
       <c r="R2">
-        <v>9.043493017507586</v>
+        <v>87.05022593342399</v>
       </c>
       <c r="S2">
-        <v>0.00320146698457146</v>
+        <v>0.002833272577460816</v>
       </c>
       <c r="T2">
-        <v>0.00320146698457146</v>
+        <v>0.003069526851765794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H3">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I3">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J3">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="N3">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="O3">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="P3">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="Q3">
-        <v>10.51856041080081</v>
+        <v>12.24836848957133</v>
       </c>
       <c r="R3">
-        <v>10.51856041080081</v>
+        <v>110.235316406142</v>
       </c>
       <c r="S3">
-        <v>0.003723652333805871</v>
+        <v>0.003587890734253877</v>
       </c>
       <c r="T3">
-        <v>0.003723652333805871</v>
+        <v>0.003887069333746896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H4">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I4">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J4">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="N4">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="O4">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="P4">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="Q4">
-        <v>7.844408125069235</v>
+        <v>8.383261414307333</v>
       </c>
       <c r="R4">
-        <v>7.844408125069235</v>
+        <v>75.44935272876599</v>
       </c>
       <c r="S4">
-        <v>0.002776981590774165</v>
+        <v>0.002455692444004353</v>
       </c>
       <c r="T4">
-        <v>0.002776981590774165</v>
+        <v>0.002660461953613066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H5">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I5">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J5">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="N5">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="O5">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="P5">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="Q5">
-        <v>10.01946904150191</v>
+        <v>11.143921849108</v>
       </c>
       <c r="R5">
-        <v>10.01946904150191</v>
+        <v>100.295296641972</v>
       </c>
       <c r="S5">
-        <v>0.003546970100734897</v>
+        <v>0.003264367330204584</v>
       </c>
       <c r="T5">
-        <v>0.003546970100734897</v>
+        <v>0.003536568720497053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H6">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I6">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J6">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="N6">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="O6">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="P6">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="Q6">
-        <v>4.020472919547243</v>
+        <v>4.26143583891</v>
       </c>
       <c r="R6">
-        <v>4.020472919547243</v>
+        <v>25.56861503346</v>
       </c>
       <c r="S6">
-        <v>0.001423278736366131</v>
+        <v>0.001248294103337978</v>
       </c>
       <c r="T6">
-        <v>0.001423278736366131</v>
+        <v>0.0009015892786733515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H7">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J7">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="N7">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="O7">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="P7">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="Q7">
-        <v>508.5535889083477</v>
+        <v>608.7565630224345</v>
       </c>
       <c r="R7">
-        <v>508.5535889083477</v>
+        <v>5478.809067201912</v>
       </c>
       <c r="S7">
-        <v>0.1800319325313214</v>
+        <v>0.1783218747659404</v>
       </c>
       <c r="T7">
-        <v>0.1800319325313214</v>
+        <v>0.193191360127383</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H8">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J8">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="N8">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="O8">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="P8">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="Q8">
-        <v>591.5028227153194</v>
+        <v>770.8937181899634</v>
       </c>
       <c r="R8">
-        <v>591.5028227153194</v>
+        <v>6938.043463709671</v>
       </c>
       <c r="S8">
-        <v>0.209396607542892</v>
+        <v>0.2258163959504691</v>
       </c>
       <c r="T8">
-        <v>0.209396607542892</v>
+        <v>0.2446462428123111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H9">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J9">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="N9">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="O9">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="P9">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="Q9">
-        <v>441.1240100636718</v>
+        <v>527.6297465851314</v>
       </c>
       <c r="R9">
-        <v>441.1240100636718</v>
+        <v>4748.667719266183</v>
       </c>
       <c r="S9">
-        <v>0.1561613362874949</v>
+        <v>0.1545575543796991</v>
       </c>
       <c r="T9">
-        <v>0.1561613362874949</v>
+        <v>0.1674454364489396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H10">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I10">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J10">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="N10">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="O10">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="P10">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="Q10">
-        <v>563.4368191745667</v>
+        <v>701.3815233262873</v>
       </c>
       <c r="R10">
-        <v>563.4368191745667</v>
+        <v>6312.433709936586</v>
       </c>
       <c r="S10">
-        <v>0.1994610236318261</v>
+        <v>0.2054543240482903</v>
       </c>
       <c r="T10">
-        <v>0.1994610236318261</v>
+        <v>0.2225862663178017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H11">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I11">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J11">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="N11">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="O11">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="P11">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="Q11">
-        <v>226.0880755241715</v>
+        <v>268.208302312455</v>
       </c>
       <c r="R11">
-        <v>226.0880755241715</v>
+        <v>1609.24981387473</v>
       </c>
       <c r="S11">
-        <v>0.08003694015074488</v>
+        <v>0.07856573579870299</v>
       </c>
       <c r="T11">
-        <v>0.08003694015074488</v>
+        <v>0.05674466047526886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H12">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I12">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J12">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="N12">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="O12">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="P12">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="Q12">
-        <v>98.76588473648125</v>
+        <v>1.304048689146666</v>
       </c>
       <c r="R12">
-        <v>98.76588473648125</v>
+        <v>11.73643820232</v>
       </c>
       <c r="S12">
-        <v>0.03496389266555541</v>
+        <v>0.0003819924435478008</v>
       </c>
       <c r="T12">
-        <v>0.03496389266555541</v>
+        <v>0.0004138451315871742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H13">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I13">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J13">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="N13">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="O13">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="P13">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="Q13">
-        <v>114.8754052350875</v>
+        <v>1.651371013867778</v>
       </c>
       <c r="R13">
-        <v>114.8754052350875</v>
+        <v>14.86233912481</v>
       </c>
       <c r="S13">
-        <v>0.04066678842869926</v>
+        <v>0.0004837328958968143</v>
       </c>
       <c r="T13">
-        <v>0.04066678842869926</v>
+        <v>0.0005240692776437369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H14">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I14">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J14">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="N14">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="O14">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="P14">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="Q14">
-        <v>85.6704270359498</v>
+        <v>1.130262770347778</v>
       </c>
       <c r="R14">
-        <v>85.6704270359498</v>
+        <v>10.17236493313</v>
       </c>
       <c r="S14">
-        <v>0.03032799861499992</v>
+        <v>0.0003310856727127121</v>
       </c>
       <c r="T14">
-        <v>0.03032799861499992</v>
+        <v>0.0003586934665980496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H15">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I15">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J15">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="N15">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="O15">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="P15">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="Q15">
-        <v>109.4247236723639</v>
+        <v>1.502465372273333</v>
       </c>
       <c r="R15">
-        <v>109.4247236723639</v>
+        <v>13.52218835046</v>
       </c>
       <c r="S15">
-        <v>0.03873720469012727</v>
+        <v>0.0004401142562216837</v>
       </c>
       <c r="T15">
-        <v>0.03873720469012727</v>
+        <v>0.0004768134693655581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.04049</v>
+      </c>
+      <c r="I16">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J16">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>42.569235</v>
+      </c>
+      <c r="N16">
+        <v>85.13847</v>
+      </c>
+      <c r="O16">
+        <v>0.09322920951467238</v>
+      </c>
+      <c r="P16">
+        <v>0.06414624078364733</v>
+      </c>
+      <c r="Q16">
+        <v>0.57454277505</v>
+      </c>
+      <c r="R16">
+        <v>3.4472566503</v>
+      </c>
+      <c r="S16">
+        <v>0.0001682996964689253</v>
+      </c>
+      <c r="T16">
+        <v>0.0001215556506552521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0623235</v>
+      </c>
+      <c r="H17">
+        <v>2.124647</v>
+      </c>
+      <c r="I17">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J17">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>96.62005599999999</v>
+      </c>
+      <c r="N17">
+        <v>289.860168</v>
+      </c>
+      <c r="O17">
+        <v>0.2116037895476247</v>
+      </c>
+      <c r="P17">
+        <v>0.2183905833651517</v>
+      </c>
+      <c r="Q17">
+        <v>102.641756060116</v>
+      </c>
+      <c r="R17">
+        <v>615.850536360696</v>
+      </c>
+      <c r="S17">
+        <v>0.03006664976067564</v>
+      </c>
+      <c r="T17">
+        <v>0.02171585125441578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0623235</v>
+      </c>
+      <c r="H18">
+        <v>2.124647</v>
+      </c>
+      <c r="I18">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J18">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>122.3539896666667</v>
+      </c>
+      <c r="N18">
+        <v>367.061969</v>
+      </c>
+      <c r="O18">
+        <v>0.2679626668787852</v>
+      </c>
+      <c r="P18">
+        <v>0.2765570657541026</v>
+      </c>
+      <c r="Q18">
+        <v>129.9795185416572</v>
+      </c>
+      <c r="R18">
+        <v>779.8771112499429</v>
+      </c>
+      <c r="S18">
+        <v>0.03807464729816543</v>
+      </c>
+      <c r="T18">
+        <v>0.02749968433040091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0623235</v>
+      </c>
+      <c r="H19">
+        <v>2.124647</v>
+      </c>
+      <c r="I19">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J19">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>83.74384566666667</v>
+      </c>
+      <c r="N19">
+        <v>251.231537</v>
+      </c>
+      <c r="O19">
+        <v>0.1834041070557659</v>
+      </c>
+      <c r="P19">
+        <v>0.1892864490617203</v>
+      </c>
+      <c r="Q19">
+        <v>88.96305523207317</v>
+      </c>
+      <c r="R19">
+        <v>533.778331392439</v>
+      </c>
+      <c r="S19">
+        <v>0.02605977455934968</v>
+      </c>
+      <c r="T19">
+        <v>0.01882185719256968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="H16">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="I16">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="J16">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>42.5565839708936</v>
-      </c>
-      <c r="N16">
-        <v>42.5565839708936</v>
-      </c>
-      <c r="O16">
-        <v>0.09700414459719731</v>
-      </c>
-      <c r="P16">
-        <v>0.09700414459719731</v>
-      </c>
-      <c r="Q16">
-        <v>43.90842832403549</v>
-      </c>
-      <c r="R16">
-        <v>43.90842832403549</v>
-      </c>
-      <c r="S16">
-        <v>0.01554392571008629</v>
-      </c>
-      <c r="T16">
-        <v>0.01554392571008629</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0623235</v>
+      </c>
+      <c r="H20">
+        <v>2.124647</v>
+      </c>
+      <c r="I20">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J20">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>111.321218</v>
+      </c>
+      <c r="N20">
+        <v>333.963654</v>
+      </c>
+      <c r="O20">
+        <v>0.2438002270031519</v>
+      </c>
+      <c r="P20">
+        <v>0.2516196610353779</v>
+      </c>
+      <c r="Q20">
+        <v>118.259145930023</v>
+      </c>
+      <c r="R20">
+        <v>709.5548755801381</v>
+      </c>
+      <c r="S20">
+        <v>0.03464142136843536</v>
+      </c>
+      <c r="T20">
+        <v>0.02502001252771363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0623235</v>
+      </c>
+      <c r="H21">
+        <v>2.124647</v>
+      </c>
+      <c r="I21">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J21">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>42.569235</v>
+      </c>
+      <c r="N21">
+        <v>85.13847</v>
+      </c>
+      <c r="O21">
+        <v>0.09322920951467238</v>
+      </c>
+      <c r="P21">
+        <v>0.06414624078364733</v>
+      </c>
+      <c r="Q21">
+        <v>45.2222987175225</v>
+      </c>
+      <c r="R21">
+        <v>180.88919487009</v>
+      </c>
+      <c r="S21">
+        <v>0.01324687991616249</v>
+      </c>
+      <c r="T21">
+        <v>0.006378435379049874</v>
       </c>
     </row>
   </sheetData>
